--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="467">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decayed fossil</t>
   </si>
   <si>
     <t xml:space="preserve">朽ちた化石</t>
@@ -1524,10 +1527,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1543,10 +1546,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1562,10 +1565,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1581,10 +1584,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1600,10 +1603,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1619,10 +1622,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1638,10 +1641,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1657,10 +1660,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1676,10 +1679,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1695,10 +1698,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1714,10 +1717,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1733,10 +1736,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1752,10 +1755,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1771,10 +1774,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1790,10 +1793,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1809,10 +1812,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -1828,10 +1831,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -1847,10 +1850,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -1866,10 +1869,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -1885,10 +1888,10 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -1904,10 +1907,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -1923,10 +1926,10 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -1942,10 +1945,10 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -1961,10 +1964,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -1980,10 +1983,10 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
@@ -1999,10 +2002,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -2018,10 +2021,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2037,10 +2040,10 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -2056,10 +2059,10 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C31" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -2075,10 +2078,10 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C32" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -2094,10 +2097,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2113,10 +2116,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C34" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2132,10 +2135,10 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -2151,10 +2154,10 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C36" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -2170,10 +2173,10 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
@@ -2189,10 +2192,10 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D38" t="s">
         <v>112</v>
@@ -2208,10 +2211,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2227,10 +2230,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C40" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D40" t="s">
         <v>118</v>
@@ -2246,10 +2249,10 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C41" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2265,10 +2268,10 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C42" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2284,10 +2287,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C43" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2303,10 +2306,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C44" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
@@ -2322,10 +2325,10 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C45" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2341,10 +2344,10 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C46" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D46" t="s">
         <v>82</v>
@@ -2360,10 +2363,10 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C47" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2379,10 +2382,10 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C48" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2398,10 +2401,10 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C49" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
@@ -2417,10 +2420,10 @@
         <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C50" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -2436,10 +2439,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C51" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -2455,10 +2458,10 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -2474,10 +2477,10 @@
         <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2493,10 +2496,10 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C54" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D54" t="s">
         <v>156</v>
@@ -2512,10 +2515,10 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C55" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D55" t="s">
         <v>159</v>
@@ -2531,10 +2534,10 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C56" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2550,10 +2553,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C57" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D57" t="s">
         <v>165</v>
@@ -2569,10 +2572,10 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C58" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -2588,10 +2591,10 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C59" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
@@ -2607,10 +2610,10 @@
         <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C60" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2626,10 +2629,10 @@
         <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C61" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D61" t="s">
         <v>177</v>
@@ -2645,10 +2648,10 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C62" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D62" t="s">
         <v>180</v>
@@ -2664,10 +2667,10 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -2683,10 +2686,10 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C64" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D64" t="s">
         <v>186</v>
@@ -2702,10 +2705,10 @@
         <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C65" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D65" t="s">
         <v>189</v>
@@ -2721,10 +2724,10 @@
         <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C66" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D66" t="s">
         <v>192</v>
@@ -2740,10 +2743,10 @@
         <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C67" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
@@ -2759,352 +2762,352 @@
         <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C68" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C69" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C70" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D70" t="s">
         <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C71" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B72" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C72" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E72" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C73" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C74" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B75" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C75" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B76" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C76" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B77" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C77" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C78" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B79" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C79" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C80" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B81" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C81" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C82" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C83" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C84" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C85" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B86" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C86" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -3117,32 +3120,32 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B87" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C87" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B88" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C88" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -3155,13 +3158,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B89" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C89" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -3174,13 +3177,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B90" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -3193,184 +3196,184 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B91" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C91" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D91" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B92" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C92" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C93" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E93" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B94" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C94" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B95" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C95" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B96" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C96" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B97" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C97" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B98" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C98" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>280</v>
+      </c>
+      <c r="B99" t="s">
+        <v>339</v>
+      </c>
+      <c r="C99" t="s">
+        <v>447</v>
+      </c>
+      <c r="D99" t="s">
+        <v>278</v>
+      </c>
+      <c r="E99" t="s">
         <v>279</v>
-      </c>
-      <c r="B99" t="s">
-        <v>338</v>
-      </c>
-      <c r="C99" t="s">
-        <v>446</v>
-      </c>
-      <c r="D99" t="s">
-        <v>277</v>
-      </c>
-      <c r="E99" t="s">
-        <v>278</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C100" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D100" t="s">
         <v>100</v>
@@ -3383,13 +3386,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B101" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3402,51 +3405,51 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B102" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C102" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D102" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E102" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B103" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C103" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D103" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E103" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B104" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C104" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
@@ -3459,304 +3462,304 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B105" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C105" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C106" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D106" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E106" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B107" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C107" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D107" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E107" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B108" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C108" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D108" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B109" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C109" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
       </c>
       <c r="E109" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B110" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C110" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D110" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E110" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B111" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C111" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D111" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E111" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B112" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C112" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D112" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E112" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B113" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C113" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D113" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E113" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B114" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C114" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D114" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E114" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B115" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D115" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E115" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C116" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D116" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C117" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D117" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B118" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C118" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D118" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E118" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G118"/>
       <c r="H118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B119" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C119" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D119" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E119" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B120" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C120" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D120" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E120" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="470">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
@@ -1023,6 +1023,15 @@
   </si>
   <si>
     <t xml:space="preserve">紫の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feywood tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フェイウッドの木</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1527,10 +1536,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1546,10 +1555,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1565,10 +1574,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1584,10 +1593,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1603,10 +1612,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1622,10 +1631,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1641,10 +1650,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C9" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1660,10 +1669,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1679,10 +1688,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1698,10 +1707,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C12" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1717,10 +1726,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1736,10 +1745,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1755,10 +1764,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1774,10 +1783,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1793,10 +1802,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1812,10 +1821,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -1831,10 +1840,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C19" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -1850,10 +1859,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C20" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -1869,10 +1878,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C21" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -1888,10 +1897,10 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C22" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -1907,10 +1916,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C23" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -1926,10 +1935,10 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C24" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -1945,10 +1954,10 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C25" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -1964,10 +1973,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C26" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -1983,10 +1992,10 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C27" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
@@ -2002,10 +2011,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C28" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -2021,10 +2030,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C29" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2040,10 +2049,10 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C30" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -2059,10 +2068,10 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -2078,10 +2087,10 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C32" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -2097,10 +2106,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C33" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2116,10 +2125,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C34" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2135,10 +2144,10 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C35" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -2154,10 +2163,10 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C36" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -2173,10 +2182,10 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C37" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
@@ -2192,10 +2201,10 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D38" t="s">
         <v>112</v>
@@ -2211,10 +2220,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C39" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2230,10 +2239,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D40" t="s">
         <v>118</v>
@@ -2249,10 +2258,10 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2268,10 +2277,10 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C42" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2287,10 +2296,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2306,10 +2315,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C44" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
@@ -2325,10 +2334,10 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C45" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2344,10 +2353,10 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C46" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D46" t="s">
         <v>82</v>
@@ -2363,10 +2372,10 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C47" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2382,10 +2391,10 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C48" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2401,10 +2410,10 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C49" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
@@ -2420,10 +2429,10 @@
         <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C50" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -2439,10 +2448,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C51" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -2458,10 +2467,10 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C52" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -2477,10 +2486,10 @@
         <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C53" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2496,10 +2505,10 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C54" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D54" t="s">
         <v>156</v>
@@ -2515,10 +2524,10 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C55" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D55" t="s">
         <v>159</v>
@@ -2534,10 +2543,10 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C56" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2553,10 +2562,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C57" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D57" t="s">
         <v>165</v>
@@ -2572,10 +2581,10 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C58" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -2591,10 +2600,10 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C59" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
@@ -2610,10 +2619,10 @@
         <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C60" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2629,10 +2638,10 @@
         <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C61" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D61" t="s">
         <v>177</v>
@@ -2648,10 +2657,10 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C62" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D62" t="s">
         <v>180</v>
@@ -2667,10 +2676,10 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C63" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -2686,10 +2695,10 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C64" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D64" t="s">
         <v>186</v>
@@ -2705,10 +2714,10 @@
         <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C65" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D65" t="s">
         <v>189</v>
@@ -2724,10 +2733,10 @@
         <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C66" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D66" t="s">
         <v>192</v>
@@ -2743,10 +2752,10 @@
         <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C67" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
@@ -2762,10 +2771,10 @@
         <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C68" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D68" t="s">
         <v>198</v>
@@ -2781,10 +2790,10 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C69" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D69" t="s">
         <v>201</v>
@@ -2800,10 +2809,10 @@
         <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C70" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D70" t="s">
         <v>97</v>
@@ -2819,10 +2828,10 @@
         <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C71" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D71" t="s">
         <v>206</v>
@@ -2838,10 +2847,10 @@
         <v>208</v>
       </c>
       <c r="B72" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C72" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D72" t="s">
         <v>209</v>
@@ -2857,10 +2866,10 @@
         <v>211</v>
       </c>
       <c r="B73" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C73" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D73" t="s">
         <v>212</v>
@@ -2876,10 +2885,10 @@
         <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C74" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D74" t="s">
         <v>215</v>
@@ -2895,10 +2904,10 @@
         <v>217</v>
       </c>
       <c r="B75" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C75" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D75" t="s">
         <v>218</v>
@@ -2914,10 +2923,10 @@
         <v>220</v>
       </c>
       <c r="B76" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C76" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D76" t="s">
         <v>221</v>
@@ -2933,10 +2942,10 @@
         <v>223</v>
       </c>
       <c r="B77" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C77" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D77" t="s">
         <v>224</v>
@@ -2952,10 +2961,10 @@
         <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C78" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D78" t="s">
         <v>227</v>
@@ -2971,10 +2980,10 @@
         <v>229</v>
       </c>
       <c r="B79" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C79" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D79" t="s">
         <v>230</v>
@@ -2990,10 +2999,10 @@
         <v>232</v>
       </c>
       <c r="B80" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C80" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D80" t="s">
         <v>233</v>
@@ -3009,10 +3018,10 @@
         <v>235</v>
       </c>
       <c r="B81" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C81" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D81" t="s">
         <v>236</v>
@@ -3028,10 +3037,10 @@
         <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C82" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D82" t="s">
         <v>239</v>
@@ -3047,10 +3056,10 @@
         <v>241</v>
       </c>
       <c r="B83" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C83" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D83" t="s">
         <v>242</v>
@@ -3066,10 +3075,10 @@
         <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C84" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D84" t="s">
         <v>244</v>
@@ -3085,10 +3094,10 @@
         <v>246</v>
       </c>
       <c r="B85" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C85" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D85" t="s">
         <v>247</v>
@@ -3104,10 +3113,10 @@
         <v>249</v>
       </c>
       <c r="B86" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C86" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -3123,10 +3132,10 @@
         <v>250</v>
       </c>
       <c r="B87" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C87" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D87" t="s">
         <v>251</v>
@@ -3142,10 +3151,10 @@
         <v>253</v>
       </c>
       <c r="B88" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C88" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -3161,10 +3170,10 @@
         <v>254</v>
       </c>
       <c r="B89" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C89" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -3180,10 +3189,10 @@
         <v>255</v>
       </c>
       <c r="B90" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C90" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -3199,10 +3208,10 @@
         <v>256</v>
       </c>
       <c r="B91" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C91" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D91" t="s">
         <v>257</v>
@@ -3218,10 +3227,10 @@
         <v>259</v>
       </c>
       <c r="B92" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C92" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D92" t="s">
         <v>260</v>
@@ -3237,10 +3246,10 @@
         <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C93" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D93" t="s">
         <v>263</v>
@@ -3256,10 +3265,10 @@
         <v>265</v>
       </c>
       <c r="B94" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C94" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D94" t="s">
         <v>266</v>
@@ -3275,10 +3284,10 @@
         <v>268</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C95" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D95" t="s">
         <v>269</v>
@@ -3294,10 +3303,10 @@
         <v>271</v>
       </c>
       <c r="B96" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C96" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D96" t="s">
         <v>272</v>
@@ -3313,10 +3322,10 @@
         <v>274</v>
       </c>
       <c r="B97" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C97" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D97" t="s">
         <v>275</v>
@@ -3332,10 +3341,10 @@
         <v>277</v>
       </c>
       <c r="B98" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C98" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D98" t="s">
         <v>278</v>
@@ -3351,10 +3360,10 @@
         <v>280</v>
       </c>
       <c r="B99" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C99" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D99" t="s">
         <v>278</v>
@@ -3370,10 +3379,10 @@
         <v>281</v>
       </c>
       <c r="B100" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C100" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D100" t="s">
         <v>100</v>
@@ -3389,10 +3398,10 @@
         <v>282</v>
       </c>
       <c r="B101" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C101" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3408,10 +3417,10 @@
         <v>283</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C102" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D102" t="s">
         <v>284</v>
@@ -3427,10 +3436,10 @@
         <v>286</v>
       </c>
       <c r="B103" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C103" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D103" t="s">
         <v>287</v>
@@ -3446,10 +3455,10 @@
         <v>289</v>
       </c>
       <c r="B104" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C104" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
@@ -3465,10 +3474,10 @@
         <v>290</v>
       </c>
       <c r="B105" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C105" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D105" t="s">
         <v>291</v>
@@ -3484,10 +3493,10 @@
         <v>293</v>
       </c>
       <c r="B106" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C106" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D106" t="s">
         <v>294</v>
@@ -3503,10 +3512,10 @@
         <v>296</v>
       </c>
       <c r="B107" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C107" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D107" t="s">
         <v>297</v>
@@ -3522,10 +3531,10 @@
         <v>299</v>
       </c>
       <c r="B108" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C108" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D108" t="s">
         <v>300</v>
@@ -3541,10 +3550,10 @@
         <v>302</v>
       </c>
       <c r="B109" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C109" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -3560,10 +3569,10 @@
         <v>303</v>
       </c>
       <c r="B110" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C110" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D110" t="s">
         <v>304</v>
@@ -3579,10 +3588,10 @@
         <v>306</v>
       </c>
       <c r="B111" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C111" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D111" t="s">
         <v>307</v>
@@ -3598,10 +3607,10 @@
         <v>309</v>
       </c>
       <c r="B112" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C112" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D112" t="s">
         <v>310</v>
@@ -3617,10 +3626,10 @@
         <v>312</v>
       </c>
       <c r="B113" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C113" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D113" t="s">
         <v>313</v>
@@ -3636,10 +3645,10 @@
         <v>315</v>
       </c>
       <c r="B114" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C114" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D114" t="s">
         <v>316</v>
@@ -3655,10 +3664,10 @@
         <v>318</v>
       </c>
       <c r="B115" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C115" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D115" t="s">
         <v>319</v>
@@ -3674,10 +3683,10 @@
         <v>321</v>
       </c>
       <c r="B116" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C116" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D116" t="s">
         <v>322</v>
@@ -3693,10 +3702,10 @@
         <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C117" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D117" t="s">
         <v>325</v>
@@ -3712,10 +3721,10 @@
         <v>327</v>
       </c>
       <c r="B118" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C118" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D118" t="s">
         <v>328</v>
@@ -3731,10 +3740,10 @@
         <v>330</v>
       </c>
       <c r="B119" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C119" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D119" t="s">
         <v>331</v>
@@ -3750,10 +3759,10 @@
         <v>333</v>
       </c>
       <c r="B120" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C120" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D120" t="s">
         <v>334</v>
@@ -3763,6 +3772,22 @@
       </c>
       <c r="G120"/>
       <c r="H120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>336</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>337</v>
+      </c>
+      <c r="E121" t="s">
+        <v>338</v>
+      </c>
+      <c r="G121"/>
+      <c r="H121"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="475">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
@@ -566,10 +566,10 @@
     <t xml:space="preserve">60</t>
   </si>
   <si>
-    <t xml:space="preserve">moss grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苔草</t>
+    <t xml:space="preserve">moss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苔</t>
   </si>
   <si>
     <t xml:space="preserve">61</t>
@@ -1032,6 +1032,15 @@
   </si>
   <si>
     <t xml:space="preserve">フェイウッドの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coralwood tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーラルウッドの木</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1542,10 +1551,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1561,10 +1570,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1580,10 +1589,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1599,10 +1608,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1618,10 +1627,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1637,10 +1646,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1656,10 +1665,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1675,10 +1684,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1694,10 +1703,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1713,10 +1722,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1732,10 +1741,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1751,10 +1760,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1770,10 +1779,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C15" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1789,10 +1798,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C16" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1808,10 +1817,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C17" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1827,10 +1836,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -1846,10 +1855,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C19" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -1865,10 +1874,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -1884,10 +1893,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -1903,10 +1912,10 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -1922,10 +1931,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -1941,10 +1950,10 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C24" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -1960,10 +1969,10 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C25" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -1979,10 +1988,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -1998,10 +2007,10 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
@@ -2017,10 +2026,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C28" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -2036,10 +2045,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C29" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2055,10 +2064,10 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C30" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -2074,10 +2083,10 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C31" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -2093,10 +2102,10 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C32" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -2112,10 +2121,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C33" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2131,10 +2140,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C34" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2150,10 +2159,10 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C35" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -2169,10 +2178,10 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C36" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -2188,10 +2197,10 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C37" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
@@ -2207,10 +2216,10 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C38" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D38" t="s">
         <v>112</v>
@@ -2226,10 +2235,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C39" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2245,10 +2254,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C40" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D40" t="s">
         <v>118</v>
@@ -2264,10 +2273,10 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2283,10 +2292,10 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C42" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2302,10 +2311,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C43" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2321,10 +2330,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C44" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
@@ -2340,10 +2349,10 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C45" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2359,10 +2368,10 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C46" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D46" t="s">
         <v>82</v>
@@ -2378,10 +2387,10 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C47" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2397,10 +2406,10 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C48" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2416,10 +2425,10 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C49" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
@@ -2435,10 +2444,10 @@
         <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C50" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -2454,10 +2463,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C51" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -2473,10 +2482,10 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C52" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -2492,10 +2501,10 @@
         <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C53" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2511,10 +2520,10 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C54" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D54" t="s">
         <v>156</v>
@@ -2530,10 +2539,10 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C55" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D55" t="s">
         <v>159</v>
@@ -2549,10 +2558,10 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C56" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2568,10 +2577,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C57" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D57" t="s">
         <v>165</v>
@@ -2587,10 +2596,10 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C58" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -2606,10 +2615,10 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C59" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
@@ -2625,10 +2634,10 @@
         <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C60" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2644,10 +2653,10 @@
         <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C61" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D61" t="s">
         <v>177</v>
@@ -2663,10 +2672,10 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C62" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D62" t="s">
         <v>180</v>
@@ -2682,10 +2691,10 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>339</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -2701,10 +2710,10 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C64" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D64" t="s">
         <v>186</v>
@@ -2720,10 +2729,10 @@
         <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C65" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D65" t="s">
         <v>189</v>
@@ -2739,10 +2748,10 @@
         <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C66" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D66" t="s">
         <v>192</v>
@@ -2758,10 +2767,10 @@
         <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C67" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
@@ -2777,10 +2786,10 @@
         <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C68" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D68" t="s">
         <v>198</v>
@@ -2796,10 +2805,10 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C69" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D69" t="s">
         <v>201</v>
@@ -2815,10 +2824,10 @@
         <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C70" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D70" t="s">
         <v>97</v>
@@ -2834,10 +2843,10 @@
         <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C71" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D71" t="s">
         <v>206</v>
@@ -2853,10 +2862,10 @@
         <v>208</v>
       </c>
       <c r="B72" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C72" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D72" t="s">
         <v>209</v>
@@ -2872,10 +2881,10 @@
         <v>211</v>
       </c>
       <c r="B73" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C73" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D73" t="s">
         <v>212</v>
@@ -2891,10 +2900,10 @@
         <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C74" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D74" t="s">
         <v>215</v>
@@ -2910,10 +2919,10 @@
         <v>217</v>
       </c>
       <c r="B75" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C75" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D75" t="s">
         <v>218</v>
@@ -2929,10 +2938,10 @@
         <v>220</v>
       </c>
       <c r="B76" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C76" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D76" t="s">
         <v>221</v>
@@ -2948,10 +2957,10 @@
         <v>223</v>
       </c>
       <c r="B77" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C77" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D77" t="s">
         <v>224</v>
@@ -2967,10 +2976,10 @@
         <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C78" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D78" t="s">
         <v>227</v>
@@ -2986,10 +2995,10 @@
         <v>229</v>
       </c>
       <c r="B79" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C79" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D79" t="s">
         <v>230</v>
@@ -3005,10 +3014,10 @@
         <v>232</v>
       </c>
       <c r="B80" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C80" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D80" t="s">
         <v>233</v>
@@ -3024,10 +3033,10 @@
         <v>235</v>
       </c>
       <c r="B81" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C81" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D81" t="s">
         <v>236</v>
@@ -3043,10 +3052,10 @@
         <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C82" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D82" t="s">
         <v>239</v>
@@ -3062,10 +3071,10 @@
         <v>241</v>
       </c>
       <c r="B83" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C83" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D83" t="s">
         <v>242</v>
@@ -3081,10 +3090,10 @@
         <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C84" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D84" t="s">
         <v>244</v>
@@ -3100,10 +3109,10 @@
         <v>246</v>
       </c>
       <c r="B85" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C85" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D85" t="s">
         <v>247</v>
@@ -3119,10 +3128,10 @@
         <v>249</v>
       </c>
       <c r="B86" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C86" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -3138,10 +3147,10 @@
         <v>250</v>
       </c>
       <c r="B87" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C87" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D87" t="s">
         <v>251</v>
@@ -3157,10 +3166,10 @@
         <v>253</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C88" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -3176,10 +3185,10 @@
         <v>254</v>
       </c>
       <c r="B89" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C89" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -3195,10 +3204,10 @@
         <v>255</v>
       </c>
       <c r="B90" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C90" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -3214,10 +3223,10 @@
         <v>256</v>
       </c>
       <c r="B91" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C91" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D91" t="s">
         <v>257</v>
@@ -3233,10 +3242,10 @@
         <v>259</v>
       </c>
       <c r="B92" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C92" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D92" t="s">
         <v>260</v>
@@ -3252,10 +3261,10 @@
         <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C93" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D93" t="s">
         <v>263</v>
@@ -3271,10 +3280,10 @@
         <v>265</v>
       </c>
       <c r="B94" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C94" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D94" t="s">
         <v>266</v>
@@ -3290,10 +3299,10 @@
         <v>268</v>
       </c>
       <c r="B95" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C95" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D95" t="s">
         <v>269</v>
@@ -3309,10 +3318,10 @@
         <v>271</v>
       </c>
       <c r="B96" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C96" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D96" t="s">
         <v>272</v>
@@ -3328,10 +3337,10 @@
         <v>274</v>
       </c>
       <c r="B97" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C97" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D97" t="s">
         <v>275</v>
@@ -3347,10 +3356,10 @@
         <v>277</v>
       </c>
       <c r="B98" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C98" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D98" t="s">
         <v>278</v>
@@ -3366,10 +3375,10 @@
         <v>280</v>
       </c>
       <c r="B99" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C99" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D99" t="s">
         <v>278</v>
@@ -3385,10 +3394,10 @@
         <v>281</v>
       </c>
       <c r="B100" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C100" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D100" t="s">
         <v>100</v>
@@ -3404,10 +3413,10 @@
         <v>282</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C101" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3423,10 +3432,10 @@
         <v>283</v>
       </c>
       <c r="B102" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C102" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D102" t="s">
         <v>284</v>
@@ -3442,10 +3451,10 @@
         <v>286</v>
       </c>
       <c r="B103" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C103" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D103" t="s">
         <v>287</v>
@@ -3461,10 +3470,10 @@
         <v>289</v>
       </c>
       <c r="B104" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C104" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
@@ -3480,10 +3489,10 @@
         <v>290</v>
       </c>
       <c r="B105" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C105" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D105" t="s">
         <v>291</v>
@@ -3499,10 +3508,10 @@
         <v>293</v>
       </c>
       <c r="B106" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C106" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D106" t="s">
         <v>294</v>
@@ -3518,10 +3527,10 @@
         <v>296</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C107" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D107" t="s">
         <v>297</v>
@@ -3537,10 +3546,10 @@
         <v>299</v>
       </c>
       <c r="B108" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C108" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D108" t="s">
         <v>300</v>
@@ -3556,10 +3565,10 @@
         <v>302</v>
       </c>
       <c r="B109" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C109" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -3575,10 +3584,10 @@
         <v>303</v>
       </c>
       <c r="B110" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C110" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D110" t="s">
         <v>304</v>
@@ -3594,10 +3603,10 @@
         <v>306</v>
       </c>
       <c r="B111" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C111" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D111" t="s">
         <v>307</v>
@@ -3613,10 +3622,10 @@
         <v>309</v>
       </c>
       <c r="B112" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C112" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D112" t="s">
         <v>310</v>
@@ -3632,10 +3641,10 @@
         <v>312</v>
       </c>
       <c r="B113" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C113" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D113" t="s">
         <v>313</v>
@@ -3651,10 +3660,10 @@
         <v>315</v>
       </c>
       <c r="B114" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C114" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D114" t="s">
         <v>316</v>
@@ -3670,10 +3679,10 @@
         <v>318</v>
       </c>
       <c r="B115" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C115" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D115" t="s">
         <v>319</v>
@@ -3689,10 +3698,10 @@
         <v>321</v>
       </c>
       <c r="B116" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C116" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D116" t="s">
         <v>322</v>
@@ -3708,10 +3717,10 @@
         <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C117" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D117" t="s">
         <v>325</v>
@@ -3727,10 +3736,10 @@
         <v>327</v>
       </c>
       <c r="B118" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C118" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D118" t="s">
         <v>328</v>
@@ -3746,10 +3755,10 @@
         <v>330</v>
       </c>
       <c r="B119" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C119" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D119" t="s">
         <v>331</v>
@@ -3765,10 +3774,10 @@
         <v>333</v>
       </c>
       <c r="B120" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C120" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D120" t="s">
         <v>334</v>
@@ -3784,10 +3793,10 @@
         <v>336</v>
       </c>
       <c r="B121" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C121" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D121" t="s">
         <v>337</v>
@@ -3797,6 +3806,22 @@
       </c>
       <c r="G121"/>
       <c r="H121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>339</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>340</v>
+      </c>
+      <c r="E122" t="s">
+        <v>341</v>
+      </c>
+      <c r="G122"/>
+      <c r="H122"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="490">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
@@ -1041,6 +1041,45 @@
   </si>
   <si>
     <t xml:space="preserve">コーラルウッドの木</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シダ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コフィ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tobacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タバック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根8</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1557,10 +1596,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1576,10 +1615,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1595,10 +1634,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1614,10 +1653,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1633,10 +1672,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1652,10 +1691,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C8" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1671,10 +1710,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1690,10 +1729,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1709,10 +1748,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C11" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1728,10 +1767,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C12" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1747,10 +1786,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C13" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1766,10 +1805,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C14" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1785,10 +1824,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C15" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1804,10 +1843,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C16" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1823,10 +1862,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C17" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1842,10 +1881,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C18" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -1861,10 +1900,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C19" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -1880,10 +1919,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C20" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -1899,10 +1938,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C21" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -1918,10 +1957,10 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C22" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -1937,10 +1976,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C23" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -1956,10 +1995,10 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -1975,10 +2014,10 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -1994,10 +2033,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C26" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -2013,10 +2052,10 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C27" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
@@ -2032,10 +2071,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C28" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -2051,10 +2090,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2070,10 +2109,10 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C30" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -2089,10 +2128,10 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C31" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -2108,10 +2147,10 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C32" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -2127,10 +2166,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C33" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2146,10 +2185,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C34" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2165,10 +2204,10 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C35" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -2184,10 +2223,10 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C36" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -2203,10 +2242,10 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C37" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
@@ -2222,10 +2261,10 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C38" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="D38" t="s">
         <v>112</v>
@@ -2241,10 +2280,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2260,10 +2299,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C40" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="D40" t="s">
         <v>118</v>
@@ -2279,10 +2318,10 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C41" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2298,10 +2337,10 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C42" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2317,10 +2356,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C43" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2336,10 +2375,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C44" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
@@ -2355,10 +2394,10 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C45" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2374,10 +2413,10 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C46" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="D46" t="s">
         <v>82</v>
@@ -2393,10 +2432,10 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C47" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2412,10 +2451,10 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C48" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2431,10 +2470,10 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C49" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
@@ -2450,10 +2489,10 @@
         <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C50" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -2469,10 +2508,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C51" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -2488,10 +2527,10 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C52" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -2507,10 +2546,10 @@
         <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C53" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2526,10 +2565,10 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C54" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="D54" t="s">
         <v>156</v>
@@ -2545,10 +2584,10 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C55" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="D55" t="s">
         <v>159</v>
@@ -2564,10 +2603,10 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C56" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2583,10 +2622,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C57" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="D57" t="s">
         <v>165</v>
@@ -2602,10 +2641,10 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C58" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -2621,10 +2660,10 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C59" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
@@ -2640,10 +2679,10 @@
         <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C60" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2659,10 +2698,10 @@
         <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C61" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="D61" t="s">
         <v>177</v>
@@ -2678,10 +2717,10 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C62" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="D62" t="s">
         <v>180</v>
@@ -2697,10 +2736,10 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C63" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -2716,10 +2755,10 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C64" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D64" t="s">
         <v>186</v>
@@ -2735,10 +2774,10 @@
         <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C65" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="D65" t="s">
         <v>189</v>
@@ -2754,10 +2793,10 @@
         <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C66" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="D66" t="s">
         <v>192</v>
@@ -2773,10 +2812,10 @@
         <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C67" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
@@ -2792,10 +2831,10 @@
         <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C68" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="D68" t="s">
         <v>198</v>
@@ -2811,10 +2850,10 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C69" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D69" t="s">
         <v>201</v>
@@ -2830,10 +2869,10 @@
         <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C70" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="D70" t="s">
         <v>97</v>
@@ -2849,10 +2888,10 @@
         <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C71" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="D71" t="s">
         <v>206</v>
@@ -2868,10 +2907,10 @@
         <v>208</v>
       </c>
       <c r="B72" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C72" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="D72" t="s">
         <v>209</v>
@@ -2887,10 +2926,10 @@
         <v>211</v>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C73" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="D73" t="s">
         <v>212</v>
@@ -2906,10 +2945,10 @@
         <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C74" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="D74" t="s">
         <v>215</v>
@@ -2925,10 +2964,10 @@
         <v>217</v>
       </c>
       <c r="B75" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C75" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="D75" t="s">
         <v>218</v>
@@ -2944,10 +2983,10 @@
         <v>220</v>
       </c>
       <c r="B76" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C76" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="D76" t="s">
         <v>221</v>
@@ -2963,10 +3002,10 @@
         <v>223</v>
       </c>
       <c r="B77" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C77" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D77" t="s">
         <v>224</v>
@@ -2982,10 +3021,10 @@
         <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C78" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="D78" t="s">
         <v>227</v>
@@ -3001,10 +3040,10 @@
         <v>229</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C79" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="D79" t="s">
         <v>230</v>
@@ -3020,10 +3059,10 @@
         <v>232</v>
       </c>
       <c r="B80" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C80" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="D80" t="s">
         <v>233</v>
@@ -3039,10 +3078,10 @@
         <v>235</v>
       </c>
       <c r="B81" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C81" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="D81" t="s">
         <v>236</v>
@@ -3058,10 +3097,10 @@
         <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C82" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="D82" t="s">
         <v>239</v>
@@ -3077,10 +3116,10 @@
         <v>241</v>
       </c>
       <c r="B83" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C83" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="D83" t="s">
         <v>242</v>
@@ -3096,10 +3135,10 @@
         <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C84" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D84" t="s">
         <v>244</v>
@@ -3115,10 +3154,10 @@
         <v>246</v>
       </c>
       <c r="B85" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C85" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="D85" t="s">
         <v>247</v>
@@ -3134,10 +3173,10 @@
         <v>249</v>
       </c>
       <c r="B86" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C86" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -3153,10 +3192,10 @@
         <v>250</v>
       </c>
       <c r="B87" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C87" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="D87" t="s">
         <v>251</v>
@@ -3172,10 +3211,10 @@
         <v>253</v>
       </c>
       <c r="B88" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C88" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -3191,10 +3230,10 @@
         <v>254</v>
       </c>
       <c r="B89" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C89" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -3210,10 +3249,10 @@
         <v>255</v>
       </c>
       <c r="B90" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C90" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -3229,10 +3268,10 @@
         <v>256</v>
       </c>
       <c r="B91" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C91" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="D91" t="s">
         <v>257</v>
@@ -3248,10 +3287,10 @@
         <v>259</v>
       </c>
       <c r="B92" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C92" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="D92" t="s">
         <v>260</v>
@@ -3267,10 +3306,10 @@
         <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C93" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="D93" t="s">
         <v>263</v>
@@ -3286,10 +3325,10 @@
         <v>265</v>
       </c>
       <c r="B94" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C94" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D94" t="s">
         <v>266</v>
@@ -3305,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B95" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C95" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="D95" t="s">
         <v>269</v>
@@ -3324,10 +3363,10 @@
         <v>271</v>
       </c>
       <c r="B96" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C96" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="D96" t="s">
         <v>272</v>
@@ -3343,10 +3382,10 @@
         <v>274</v>
       </c>
       <c r="B97" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C97" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D97" t="s">
         <v>275</v>
@@ -3362,10 +3401,10 @@
         <v>277</v>
       </c>
       <c r="B98" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C98" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D98" t="s">
         <v>278</v>
@@ -3381,10 +3420,10 @@
         <v>280</v>
       </c>
       <c r="B99" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C99" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D99" t="s">
         <v>278</v>
@@ -3400,10 +3439,10 @@
         <v>281</v>
       </c>
       <c r="B100" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C100" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D100" t="s">
         <v>100</v>
@@ -3419,10 +3458,10 @@
         <v>282</v>
       </c>
       <c r="B101" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C101" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3438,10 +3477,10 @@
         <v>283</v>
       </c>
       <c r="B102" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C102" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="D102" t="s">
         <v>284</v>
@@ -3457,10 +3496,10 @@
         <v>286</v>
       </c>
       <c r="B103" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C103" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="D103" t="s">
         <v>287</v>
@@ -3476,10 +3515,10 @@
         <v>289</v>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C104" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
@@ -3495,10 +3534,10 @@
         <v>290</v>
       </c>
       <c r="B105" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C105" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="D105" t="s">
         <v>291</v>
@@ -3514,10 +3553,10 @@
         <v>293</v>
       </c>
       <c r="B106" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C106" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="D106" t="s">
         <v>294</v>
@@ -3533,10 +3572,10 @@
         <v>296</v>
       </c>
       <c r="B107" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C107" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D107" t="s">
         <v>297</v>
@@ -3552,10 +3591,10 @@
         <v>299</v>
       </c>
       <c r="B108" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C108" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D108" t="s">
         <v>300</v>
@@ -3571,10 +3610,10 @@
         <v>302</v>
       </c>
       <c r="B109" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C109" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -3590,10 +3629,10 @@
         <v>303</v>
       </c>
       <c r="B110" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C110" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D110" t="s">
         <v>304</v>
@@ -3609,10 +3648,10 @@
         <v>306</v>
       </c>
       <c r="B111" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C111" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="D111" t="s">
         <v>307</v>
@@ -3628,10 +3667,10 @@
         <v>309</v>
       </c>
       <c r="B112" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C112" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="D112" t="s">
         <v>310</v>
@@ -3647,10 +3686,10 @@
         <v>312</v>
       </c>
       <c r="B113" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C113" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D113" t="s">
         <v>313</v>
@@ -3666,10 +3705,10 @@
         <v>315</v>
       </c>
       <c r="B114" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C114" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D114" t="s">
         <v>316</v>
@@ -3685,10 +3724,10 @@
         <v>318</v>
       </c>
       <c r="B115" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C115" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="D115" t="s">
         <v>319</v>
@@ -3704,10 +3743,10 @@
         <v>321</v>
       </c>
       <c r="B116" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C116" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D116" t="s">
         <v>322</v>
@@ -3723,10 +3762,10 @@
         <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C117" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="D117" t="s">
         <v>325</v>
@@ -3742,10 +3781,10 @@
         <v>327</v>
       </c>
       <c r="B118" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C118" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D118" t="s">
         <v>328</v>
@@ -3761,10 +3800,10 @@
         <v>330</v>
       </c>
       <c r="B119" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C119" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D119" t="s">
         <v>331</v>
@@ -3780,10 +3819,10 @@
         <v>333</v>
       </c>
       <c r="B120" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C120" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D120" t="s">
         <v>334</v>
@@ -3799,10 +3838,10 @@
         <v>336</v>
       </c>
       <c r="B121" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C121" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D121" t="s">
         <v>337</v>
@@ -3818,10 +3857,10 @@
         <v>339</v>
       </c>
       <c r="B122" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C122" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="D122" t="s">
         <v>340</v>
@@ -3831,6 +3870,86 @@
       </c>
       <c r="G122"/>
       <c r="H122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>342</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123"/>
+      <c r="H123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>343</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>344</v>
+      </c>
+      <c r="E124" t="s">
+        <v>345</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>346</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>347</v>
+      </c>
+      <c r="E125" t="s">
+        <v>348</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>349</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>350</v>
+      </c>
+      <c r="E126" t="s">
+        <v>351</v>
+      </c>
+      <c r="G126"/>
+      <c r="H126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>352</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>353</v>
+      </c>
+      <c r="E127" t="s">
+        <v>354</v>
+      </c>
+      <c r="G127"/>
+      <c r="H127"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="499">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
@@ -629,16 +629,19 @@
     <t xml:space="preserve">67</t>
   </si>
   <si>
+    <t xml:space="preserve">roof7</t>
+  </si>
+  <si>
     <t xml:space="preserve">屋根7</t>
   </si>
   <si>
     <t xml:space="preserve">68</t>
   </si>
   <si>
-    <t xml:space="preserve">fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魚</t>
+    <t xml:space="preserve">fish silhouette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚影</t>
   </si>
   <si>
     <t xml:space="preserve">69</t>
@@ -1076,10 +1079,19 @@
     <t xml:space="preserve">124</t>
   </si>
   <si>
-    <t xml:space="preserve">roof7</t>
+    <t xml:space="preserve">roof8</t>
   </si>
   <si>
     <t xml:space="preserve">屋根8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根9</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1611,10 +1623,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1630,10 +1642,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1649,10 +1661,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1668,10 +1680,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1687,10 +1699,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1706,10 +1718,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1725,10 +1737,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C9" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1744,10 +1756,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1763,10 +1775,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C11" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1782,10 +1794,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1801,10 +1813,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1820,10 +1832,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1839,10 +1851,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1858,10 +1870,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1877,10 +1889,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C17" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1896,10 +1908,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -1915,10 +1927,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C19" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -1934,10 +1946,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C20" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -1953,10 +1965,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C21" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -1972,10 +1984,10 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -1991,10 +2003,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C23" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -2010,10 +2022,10 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C24" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -2029,10 +2041,10 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C25" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -2048,10 +2060,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C26" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -2067,10 +2079,10 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C27" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
@@ -2086,10 +2098,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -2105,10 +2117,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C29" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2124,10 +2136,10 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C30" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -2143,10 +2155,10 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C31" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -2162,10 +2174,10 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C32" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -2181,10 +2193,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C33" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2200,10 +2212,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C34" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2219,10 +2231,10 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C35" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -2238,10 +2250,10 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C36" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -2257,10 +2269,10 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C37" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
@@ -2276,10 +2288,10 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C38" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D38" t="s">
         <v>112</v>
@@ -2295,10 +2307,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C39" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2314,10 +2326,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C40" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D40" t="s">
         <v>118</v>
@@ -2333,10 +2345,10 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C41" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2352,10 +2364,10 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C42" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2371,10 +2383,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C43" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2390,10 +2402,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C44" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
@@ -2409,10 +2421,10 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C45" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2428,10 +2440,10 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C46" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D46" t="s">
         <v>82</v>
@@ -2447,10 +2459,10 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C47" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2466,10 +2478,10 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C48" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2485,10 +2497,10 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C49" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
@@ -2504,10 +2516,10 @@
         <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C50" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -2523,10 +2535,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C51" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -2542,10 +2554,10 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C52" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -2561,10 +2573,10 @@
         <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C53" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2580,10 +2592,10 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C54" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D54" t="s">
         <v>156</v>
@@ -2599,10 +2611,10 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C55" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D55" t="s">
         <v>159</v>
@@ -2618,10 +2630,10 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C56" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2637,10 +2649,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C57" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D57" t="s">
         <v>165</v>
@@ -2656,10 +2668,10 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C58" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -2675,10 +2687,10 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C59" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
@@ -2694,10 +2706,10 @@
         <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C60" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2713,10 +2725,10 @@
         <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C61" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D61" t="s">
         <v>177</v>
@@ -2732,10 +2744,10 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C62" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D62" t="s">
         <v>180</v>
@@ -2751,10 +2763,10 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C63" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -2770,10 +2782,10 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C64" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D64" t="s">
         <v>186</v>
@@ -2789,10 +2801,10 @@
         <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C65" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D65" t="s">
         <v>189</v>
@@ -2808,10 +2820,10 @@
         <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C66" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D66" t="s">
         <v>192</v>
@@ -2827,10 +2839,10 @@
         <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C67" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
@@ -2846,10 +2858,10 @@
         <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C68" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D68" t="s">
         <v>198</v>
@@ -2865,10 +2877,10 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C69" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D69" t="s">
         <v>201</v>
@@ -2884,314 +2896,314 @@
         <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C70" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="E70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>355</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B72" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C72" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D72" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C73" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C74" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C75" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B76" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C76" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E76" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C77" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C78" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B79" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C79" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B80" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C80" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B81" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C81" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B82" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C82" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C83" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D83" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E83" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B84" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C84" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E84" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B85" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C85" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C86" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -3204,32 +3216,32 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C87" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E87" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C88" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -3242,13 +3254,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B89" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C89" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -3261,13 +3273,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C90" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -3280,184 +3292,184 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C91" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C92" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E92" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C93" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D93" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E93" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B94" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C94" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B95" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C95" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E95" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B96" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C96" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B97" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C97" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C98" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E98" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>281</v>
+      </c>
+      <c r="B99" t="s">
+        <v>362</v>
+      </c>
+      <c r="C99" t="s">
+        <v>473</v>
+      </c>
+      <c r="D99" t="s">
+        <v>279</v>
+      </c>
+      <c r="E99" t="s">
         <v>280</v>
-      </c>
-      <c r="B99" t="s">
-        <v>358</v>
-      </c>
-      <c r="C99" t="s">
-        <v>469</v>
-      </c>
-      <c r="D99" t="s">
-        <v>278</v>
-      </c>
-      <c r="E99" t="s">
-        <v>279</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C100" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D100" t="s">
         <v>100</v>
@@ -3470,13 +3482,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B101" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C101" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3489,51 +3501,51 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B102" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C102" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D102" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E102" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B103" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C103" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D103" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E103" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B104" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C104" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
@@ -3546,355 +3558,355 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B105" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C105" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E105" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B106" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C106" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D106" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E106" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C107" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D107" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C108" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E108" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C109" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
       </c>
       <c r="E109" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B110" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C110" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D110" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E110" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B111" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C111" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D111" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E111" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B112" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C112" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D112" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E112" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B113" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C113" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D113" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E113" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B114" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C114" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D114" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E114" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B115" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C115" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D115" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E115" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B116" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C116" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E116" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C117" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B118" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C118" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D118" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E118" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G118"/>
       <c r="H118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B119" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C119" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D119" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E119" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B120" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C120" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D120" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E120" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B121" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C121" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D121" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E121" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B122" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C122" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D122" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E122" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B123" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C123" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -3907,79 +3919,95 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C124" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D124" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E124" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G124"/>
       <c r="H124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C125" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D125" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E125" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G125"/>
       <c r="H125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B126" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C126" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D126" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E126" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G126"/>
       <c r="H126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B127" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C127" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D127" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E127" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>356</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>357</v>
+      </c>
+      <c r="E128" t="s">
+        <v>358</v>
+      </c>
+      <c r="G128"/>
+      <c r="H128"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="565">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
@@ -1209,6 +1209,33 @@
   </si>
   <si>
     <t xml:space="preserve">カボチ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunflower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ひまわり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tulip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チューリップ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red pepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トウガラシ</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1794,10 +1821,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C3" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1813,10 +1840,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C4" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1832,10 +1859,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C5" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1851,10 +1878,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1870,10 +1897,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1889,10 +1916,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1908,10 +1935,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1927,10 +1954,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1946,10 +1973,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C11" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1965,10 +1992,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C12" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1984,10 +2011,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C13" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -2003,10 +2030,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C14" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -2022,10 +2049,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C15" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -2041,10 +2068,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C16" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -2060,10 +2087,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C17" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2079,10 +2106,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C18" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -2098,10 +2125,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -2117,10 +2144,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C20" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -2136,10 +2163,10 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C21" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -2155,10 +2182,10 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
@@ -2174,10 +2201,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C23" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -2193,10 +2220,10 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C24" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -2212,10 +2239,10 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -2231,10 +2258,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C26" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
@@ -2250,10 +2277,10 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C27" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
@@ -2269,10 +2296,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C28" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -2288,10 +2315,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C29" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2307,10 +2334,10 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C30" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
@@ -2326,10 +2353,10 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C31" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -2345,10 +2372,10 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -2364,10 +2391,10 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C33" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2383,10 +2410,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C34" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D34" t="s">
         <v>100</v>
@@ -2402,10 +2429,10 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C35" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -2421,10 +2448,10 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C36" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -2440,10 +2467,10 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C37" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
@@ -2459,10 +2486,10 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C38" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D38" t="s">
         <v>112</v>
@@ -2478,10 +2505,10 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C39" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2497,10 +2524,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C40" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D40" t="s">
         <v>118</v>
@@ -2516,10 +2543,10 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C41" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2535,10 +2562,10 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C42" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2554,10 +2581,10 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C43" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2573,10 +2600,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C44" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D44" t="s">
         <v>130</v>
@@ -2592,10 +2619,10 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C45" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2611,10 +2638,10 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C46" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D46" t="s">
         <v>82</v>
@@ -2630,10 +2657,10 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C47" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -2649,10 +2676,10 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C48" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -2668,10 +2695,10 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C49" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
@@ -2687,10 +2714,10 @@
         <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C50" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -2706,10 +2733,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C51" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -2725,10 +2752,10 @@
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C52" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -2744,10 +2771,10 @@
         <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C53" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -2763,10 +2790,10 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C54" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D54" t="s">
         <v>156</v>
@@ -2782,10 +2809,10 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C55" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="D55" t="s">
         <v>159</v>
@@ -2801,10 +2828,10 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C56" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2820,10 +2847,10 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C57" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D57" t="s">
         <v>165</v>
@@ -2839,10 +2866,10 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C58" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D58" t="s">
         <v>168</v>
@@ -2858,10 +2885,10 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C59" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
@@ -2877,10 +2904,10 @@
         <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C60" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D60" t="s">
         <v>174</v>
@@ -2896,10 +2923,10 @@
         <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C61" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D61" t="s">
         <v>177</v>
@@ -2915,10 +2942,10 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C62" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D62" t="s">
         <v>180</v>
@@ -2934,10 +2961,10 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C63" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -2953,10 +2980,10 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C64" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D64" t="s">
         <v>186</v>
@@ -2972,10 +2999,10 @@
         <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C65" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D65" t="s">
         <v>189</v>
@@ -2991,10 +3018,10 @@
         <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C66" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="D66" t="s">
         <v>192</v>
@@ -3010,10 +3037,10 @@
         <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C67" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
@@ -3029,10 +3056,10 @@
         <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C68" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D68" t="s">
         <v>198</v>
@@ -3048,10 +3075,10 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C69" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D69" t="s">
         <v>201</v>
@@ -3067,10 +3094,10 @@
         <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C70" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D70" t="s">
         <v>204</v>
@@ -3086,10 +3113,10 @@
         <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C71" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D71" t="s">
         <v>207</v>
@@ -3105,10 +3132,10 @@
         <v>209</v>
       </c>
       <c r="B72" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C72" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D72" t="s">
         <v>210</v>
@@ -3124,10 +3151,10 @@
         <v>212</v>
       </c>
       <c r="B73" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C73" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D73" t="s">
         <v>213</v>
@@ -3143,10 +3170,10 @@
         <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C74" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="D74" t="s">
         <v>216</v>
@@ -3162,10 +3189,10 @@
         <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C75" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D75" t="s">
         <v>219</v>
@@ -3181,10 +3208,10 @@
         <v>221</v>
       </c>
       <c r="B76" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C76" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="D76" t="s">
         <v>222</v>
@@ -3200,10 +3227,10 @@
         <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C77" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D77" t="s">
         <v>225</v>
@@ -3219,10 +3246,10 @@
         <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C78" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D78" t="s">
         <v>228</v>
@@ -3238,10 +3265,10 @@
         <v>230</v>
       </c>
       <c r="B79" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C79" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="D79" t="s">
         <v>231</v>
@@ -3257,10 +3284,10 @@
         <v>233</v>
       </c>
       <c r="B80" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C80" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D80" t="s">
         <v>234</v>
@@ -3276,10 +3303,10 @@
         <v>236</v>
       </c>
       <c r="B81" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C81" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D81" t="s">
         <v>237</v>
@@ -3295,10 +3322,10 @@
         <v>239</v>
       </c>
       <c r="B82" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C82" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D82" t="s">
         <v>240</v>
@@ -3314,10 +3341,10 @@
         <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C83" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="D83" t="s">
         <v>243</v>
@@ -3333,10 +3360,10 @@
         <v>244</v>
       </c>
       <c r="B84" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C84" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D84" t="s">
         <v>245</v>
@@ -3352,10 +3379,10 @@
         <v>247</v>
       </c>
       <c r="B85" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C85" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D85" t="s">
         <v>248</v>
@@ -3371,10 +3398,10 @@
         <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C86" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -3390,10 +3417,10 @@
         <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C87" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D87" t="s">
         <v>252</v>
@@ -3409,10 +3436,10 @@
         <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C88" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -3428,10 +3455,10 @@
         <v>255</v>
       </c>
       <c r="B89" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C89" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -3447,10 +3474,10 @@
         <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C90" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
@@ -3466,10 +3493,10 @@
         <v>257</v>
       </c>
       <c r="B91" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C91" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="D91" t="s">
         <v>258</v>
@@ -3485,10 +3512,10 @@
         <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C92" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D92" t="s">
         <v>261</v>
@@ -3504,10 +3531,10 @@
         <v>263</v>
       </c>
       <c r="B93" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C93" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="D93" t="s">
         <v>264</v>
@@ -3523,10 +3550,10 @@
         <v>266</v>
       </c>
       <c r="B94" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C94" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D94" t="s">
         <v>267</v>
@@ -3542,10 +3569,10 @@
         <v>269</v>
       </c>
       <c r="B95" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="D95" t="s">
         <v>270</v>
@@ -3561,10 +3588,10 @@
         <v>272</v>
       </c>
       <c r="B96" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D96" t="s">
         <v>273</v>
@@ -3580,10 +3607,10 @@
         <v>275</v>
       </c>
       <c r="B97" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C97" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D97" t="s">
         <v>276</v>
@@ -3599,10 +3626,10 @@
         <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C98" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D98" t="s">
         <v>279</v>
@@ -3618,10 +3645,10 @@
         <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C99" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D99" t="s">
         <v>279</v>
@@ -3637,10 +3664,10 @@
         <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C100" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D100" t="s">
         <v>100</v>
@@ -3656,10 +3683,10 @@
         <v>283</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C101" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
@@ -3675,10 +3702,10 @@
         <v>284</v>
       </c>
       <c r="B102" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C102" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D102" t="s">
         <v>285</v>
@@ -3694,10 +3721,10 @@
         <v>287</v>
       </c>
       <c r="B103" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C103" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D103" t="s">
         <v>288</v>
@@ -3713,10 +3740,10 @@
         <v>290</v>
       </c>
       <c r="B104" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C104" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
@@ -3732,10 +3759,10 @@
         <v>291</v>
       </c>
       <c r="B105" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C105" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="D105" t="s">
         <v>292</v>
@@ -3751,10 +3778,10 @@
         <v>294</v>
       </c>
       <c r="B106" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C106" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D106" t="s">
         <v>295</v>
@@ -3770,10 +3797,10 @@
         <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C107" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D107" t="s">
         <v>298</v>
@@ -3789,10 +3816,10 @@
         <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C108" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D108" t="s">
         <v>301</v>
@@ -3808,10 +3835,10 @@
         <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C109" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -3827,10 +3854,10 @@
         <v>304</v>
       </c>
       <c r="B110" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C110" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="D110" t="s">
         <v>305</v>
@@ -3846,10 +3873,10 @@
         <v>307</v>
       </c>
       <c r="B111" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C111" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="D111" t="s">
         <v>308</v>
@@ -3865,10 +3892,10 @@
         <v>310</v>
       </c>
       <c r="B112" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C112" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="D112" t="s">
         <v>311</v>
@@ -3884,10 +3911,10 @@
         <v>313</v>
       </c>
       <c r="B113" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C113" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D113" t="s">
         <v>314</v>
@@ -3903,10 +3930,10 @@
         <v>316</v>
       </c>
       <c r="B114" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C114" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D114" t="s">
         <v>317</v>
@@ -3922,10 +3949,10 @@
         <v>319</v>
       </c>
       <c r="B115" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C115" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D115" t="s">
         <v>320</v>
@@ -3941,10 +3968,10 @@
         <v>322</v>
       </c>
       <c r="B116" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C116" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="D116" t="s">
         <v>323</v>
@@ -3960,10 +3987,10 @@
         <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C117" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="D117" t="s">
         <v>326</v>
@@ -3979,10 +4006,10 @@
         <v>328</v>
       </c>
       <c r="B118" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C118" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D118" t="s">
         <v>329</v>
@@ -3998,10 +4025,10 @@
         <v>331</v>
       </c>
       <c r="B119" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C119" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D119" t="s">
         <v>332</v>
@@ -4017,10 +4044,10 @@
         <v>334</v>
       </c>
       <c r="B120" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C120" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D120" t="s">
         <v>335</v>
@@ -4036,10 +4063,10 @@
         <v>337</v>
       </c>
       <c r="B121" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C121" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="D121" t="s">
         <v>338</v>
@@ -4055,10 +4082,10 @@
         <v>340</v>
       </c>
       <c r="B122" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C122" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="D122" t="s">
         <v>341</v>
@@ -4074,10 +4101,10 @@
         <v>343</v>
       </c>
       <c r="B123" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C123" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -4093,10 +4120,10 @@
         <v>344</v>
       </c>
       <c r="B124" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C124" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="D124" t="s">
         <v>345</v>
@@ -4112,10 +4139,10 @@
         <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C125" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D125" t="s">
         <v>348</v>
@@ -4131,10 +4158,10 @@
         <v>350</v>
       </c>
       <c r="B126" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C126" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="D126" t="s">
         <v>351</v>
@@ -4150,10 +4177,10 @@
         <v>353</v>
       </c>
       <c r="B127" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C127" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D127" t="s">
         <v>354</v>
@@ -4169,10 +4196,10 @@
         <v>356</v>
       </c>
       <c r="B128" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C128" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="D128" t="s">
         <v>357</v>
@@ -4188,10 +4215,10 @@
         <v>359</v>
       </c>
       <c r="B129" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C129" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D129" t="s">
         <v>360</v>
@@ -4207,10 +4234,10 @@
         <v>362</v>
       </c>
       <c r="B130" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C130" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="D130" t="s">
         <v>363</v>
@@ -4226,10 +4253,10 @@
         <v>365</v>
       </c>
       <c r="B131" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C131" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="D131" t="s">
         <v>366</v>
@@ -4245,10 +4272,10 @@
         <v>368</v>
       </c>
       <c r="B132" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C132" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="D132" t="s">
         <v>369</v>
@@ -4264,10 +4291,10 @@
         <v>371</v>
       </c>
       <c r="B133" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C133" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="D133" t="s">
         <v>372</v>
@@ -4283,10 +4310,10 @@
         <v>374</v>
       </c>
       <c r="B134" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C134" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="D134" t="s">
         <v>375</v>
@@ -4302,10 +4329,10 @@
         <v>377</v>
       </c>
       <c r="B135" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C135" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="D135" t="s">
         <v>378</v>
@@ -4321,10 +4348,10 @@
         <v>380</v>
       </c>
       <c r="B136" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C136" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="D136" t="s">
         <v>381</v>
@@ -4340,10 +4367,10 @@
         <v>383</v>
       </c>
       <c r="B137" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C137" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="D137" t="s">
         <v>384</v>
@@ -4359,10 +4386,10 @@
         <v>386</v>
       </c>
       <c r="B138" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C138" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D138" t="s">
         <v>387</v>
@@ -4378,10 +4405,10 @@
         <v>389</v>
       </c>
       <c r="B139" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C139" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="D139" t="s">
         <v>390</v>
@@ -4397,10 +4424,10 @@
         <v>392</v>
       </c>
       <c r="B140" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C140" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D140" t="s">
         <v>393</v>
@@ -4416,10 +4443,10 @@
         <v>395</v>
       </c>
       <c r="B141" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C141" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="D141" t="s">
         <v>396</v>
@@ -4429,6 +4456,54 @@
       </c>
       <c r="G141"/>
       <c r="H141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>398</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>399</v>
+      </c>
+      <c r="E142" t="s">
+        <v>400</v>
+      </c>
+      <c r="G142"/>
+      <c r="H142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>401</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>402</v>
+      </c>
+      <c r="E143" t="s">
+        <v>403</v>
+      </c>
+      <c r="G143"/>
+      <c r="H143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>404</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>405</v>
+      </c>
+      <c r="E144" t="s">
+        <v>406</v>
+      </c>
+      <c r="G144"/>
+      <c r="H144"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Obj.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Obj.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">momiji</t>
